--- a/biology/Médecine/Joseph_Aractingi/Joseph_Aractingi.xlsx
+++ b/biology/Médecine/Joseph_Aractingi/Joseph_Aractingi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Aractingi, né le 13 octobre 1885 à Damas, où il est mort le 29 mai 1965[1], était médecin-chef de l'Hôpital St-Louis (des Français) de Damas.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Aractingi, né le 13 octobre 1885 à Damas, où il est mort le 29 mai 1965, était médecin-chef de l'Hôpital St-Louis (des Français) de Damas.
 Il fit construire dans Salhié, le nouveau quartier élégant de Damas, une magnifique maison dans le style art déco, destinée à abriter ses plafonds anciens, boiseries, fontaines, faïences, porcelaines, cristaux, montres, armes, tapis et icônes. Sa maison deviendra par la suite un musée que l'on pourra visiter dans les circuits touristiques.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Diplômé de Médecine en 1906 de la Faculté Française de Médecine de Beyrouth, Liban, il est interne puis chef de clinique de l'Hôpital Saint Michel de Paris 5e (France).
 Chirurgien-Chef de l'Hôpital St-Louis (Hôpital Français de Damas).
